--- a/2019_dkp/2019_12_10_dkp.xlsx
+++ b/2019_dkp/2019_12_10_dkp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Blizzard\World of Warcraft\wow_dkp\2019_dkp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65BCD5A5-CC20-4AA5-9604-785E7EFD0AD9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D8AB0C6-A1E4-4443-9706-E7734963AAD2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -732,10 +732,10 @@
   <dimension ref="B1:P59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E36" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I50" sqref="I50"/>
+      <selection pane="bottomRight" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1296,7 +1296,7 @@
         <v>11</v>
       </c>
       <c r="D19" s="5">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="6"/>
@@ -1319,7 +1319,7 @@
       <c r="O19" s="5"/>
       <c r="P19" s="9">
         <f t="shared" si="2"/>
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.2">
